--- a/v2_SSS_Ecosystem_Respiration_Data_Package_STAGING/SM_Inspecion_02282024.xlsx
+++ b/v2_SSS_Ecosystem_Respiration_Data_Package_STAGING/SM_Inspecion_02282024.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/vanessa_garayburu-caruso_pnnl_gov/Documents/Documents/GitHub/SSS_metabolism/v2_SSS_Ecosystem_Respiration_Data_Package_STAGING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{94BEA005-C41F-42A2-8C85-54EB3CF871E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4FAC1D-98E7-4828-B4AE-673FE648F8D1}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="8_{94BEA005-C41F-42A2-8C85-54EB3CF871E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{079A2C49-2F6B-450A-9B7D-0E05312A3781}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{D067E5FF-B7BE-4CCB-A546-E1FF0B3DFFED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="84">
   <si>
     <t>Site</t>
   </si>
@@ -185,24 +188,6 @@
     <t>SSS048</t>
   </si>
   <si>
-    <t>SSS049</t>
-  </si>
-  <si>
-    <t>SSS050</t>
-  </si>
-  <si>
-    <t>SSS051</t>
-  </si>
-  <si>
-    <t>SSS052</t>
-  </si>
-  <si>
-    <t>SSS053</t>
-  </si>
-  <si>
-    <t>SSS054</t>
-  </si>
-  <si>
     <t>Good_Estimates</t>
   </si>
   <si>
@@ -230,9 +215,6 @@
     <t>Bob</t>
   </si>
   <si>
-    <t>Not significant</t>
-  </si>
-  <si>
     <t>Check scatter dots on model plot</t>
   </si>
   <si>
@@ -254,38 +236,94 @@
     <t>Positive_Avg_ER</t>
   </si>
   <si>
-    <t>Steep site. K600 varies fron 40ish to 300ish. Worked before but not now</t>
-  </si>
-  <si>
-    <t>Needs rerun</t>
-  </si>
-  <si>
-    <t>Check if days sre missing</t>
-  </si>
-  <si>
     <t>X GPP</t>
   </si>
   <si>
     <t>The model fits are good, the sensors might have been moved we can keep the data and just average across deployment time.</t>
   </si>
   <si>
-    <t>Steep site. Check scatter dots on model plot</t>
-  </si>
-  <si>
-    <t>Needs re-run</t>
-  </si>
-  <si>
     <t>Remove the 4ish days where the DO drops a lot and see if there is a weird point THE WHOLE DAY the rerun</t>
   </si>
   <si>
     <t>X ER</t>
+  </si>
+  <si>
+    <t>High error in the ER and GPP predictions. Seems model could have failed? Why? Maybe try rerunning with orifinal K600 daily sdlog</t>
+  </si>
+  <si>
+    <t>Steep site. K600 varies fron 40ish to 300ish. Worked before but not now K600 daily sdlog was not changed</t>
+  </si>
+  <si>
+    <t>Depth from July 25 to Ag 8th was kept constant</t>
+  </si>
+  <si>
+    <t>Check biofouling with Bob</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check scatter dots on model plot. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove days where DO was weird?</t>
+    </r>
+  </si>
+  <si>
+    <t>Steep site. Check scatter dots on model plot. Double checking DO curve</t>
+  </si>
+  <si>
+    <t>Little blip in model outputs curve, is it to worry about?</t>
+  </si>
+  <si>
+    <t>DO data looks strange. Priors were changed for this run</t>
+  </si>
+  <si>
+    <t>Site really steep. Model failed Dosat curve looks really bad</t>
+  </si>
+  <si>
+    <t>Tried new pooling but didn't work. This site is very steep</t>
+  </si>
+  <si>
+    <t>It used to give good estimates, not anymore. Try relaxed pooling</t>
+  </si>
+  <si>
+    <t>Tried relaxed pooling but didn't work</t>
+  </si>
+  <si>
+    <t>DO data needs to be cleaned up and model needs to be run again</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Used to work but it doesn't work anymore. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Can we cut off the last days with positive ER?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to work but it doesn't work anymore. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +337,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,12 +356,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -370,25 +410,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,11 +463,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -441,26 +508,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -774,87 +821,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E102E9-0757-4782-BA5A-E8CFEF1F8992}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="6.3671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.3671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.7890625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.62890625" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83984375" style="3"/>
-    <col min="8" max="8" width="11.05078125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14" style="3" customWidth="1"/>
     <col min="9" max="9" width="24.41796875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
+      <c r="G1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="9"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -862,67 +915,71 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
@@ -931,19 +988,21 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -951,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -959,51 +1018,55 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="18" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
@@ -1011,17 +1074,21 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1029,7 +1096,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1037,25 +1104,29 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12" t="s">
-        <v>73</v>
+      <c r="B14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1063,13 +1134,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1080,35 +1151,39 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1116,35 +1191,35 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="15" t="s">
-        <v>76</v>
+      <c r="I19" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1152,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1169,20 +1244,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1190,102 +1265,110 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1296,37 +1379,39 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="13" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="16" t="s">
-        <v>79</v>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1334,30 +1419,30 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="14"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1368,7 +1453,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1378,50 +1463,70 @@
       <c r="H32" s="2"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1" t="s">
+      <c r="H33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="C35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
@@ -1434,7 +1539,9 @@
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
@@ -1443,20 +1550,26 @@
       <c r="H37" s="2"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1466,70 +1579,100 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="4"/>
+      <c r="H39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
+      <c r="I41" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="7"/>
+      <c r="C42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="4"/>
@@ -1539,8 +1682,12 @@
         <v>44</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="C45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1552,153 +1699,98 @@
         <v>45</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:9" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="4"/>
+      <c r="C49" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D49" s="4"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="4"/>
+      <c r="I49" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I49" xr:uid="{99E102E9-0757-4782-BA5A-E8CFEF1F8992}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"?"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"X"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"Bob"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>